--- a/results/trainMaggiOriginal_artigoWithDuplicates3_expSPLime.xlsx
+++ b/results/trainMaggiOriginal_artigoWithDuplicates3_expSPLime.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ani_c\PycharmProjects\interpretablePM\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B9BCB2D-EF71-49F7-ADFB-1F5364731305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DFC671-7940-4856-9BC3-0AC6BEFFF5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analisis_SP_Lime" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">analisis_SP_Lime!$A$1:$AB$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>prediction</t>
   </si>
@@ -86,14 +97,92 @@
   </si>
   <si>
     <t>%3CmxGraphModel%3E%3Croot%3E%3CmxCell%20id%3D%220%22%2F%3E%3CmxCell%20id%3D%221%22%20parent%3D%220%22%2F%3E%3CmxCell%20id%3D%222%22%20value%3D%22%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3B%22%20edge%3D%221%22%20source%3D%223%22%20target%3D%2213%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22-20%22%20y%3D%226878%22%20as%3D%22targetPoint%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%223%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.145%2C0.145%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.855%2C0.145%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.855%2C0.855%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.145%2C0.855%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.event%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DellipsePerimeter%3BoutlineConnect%3D0%3Baspect%3Dfixed%3Boutline%3Dstandard%3Bsymbol%3Dgeneral%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22-45%22%20y%3D%226848%22%20width%3D%2230%22%20height%3D%2230%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%224%22%20value%3D%22%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BexitX%3D0.5%3BexitY%3D0%3BexitDx%3D0%3BexitDy%3D0%3BexitPerimeter%3D0%3B%22%20edge%3D%221%22%20source%3D%226%22%20target%3D%2211%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%2274.5%22%20y%3D%226928%22%20as%3D%22sourcePoint%22%2F%3E%3CmxPoint%20x%3D%22103%22%20y%3D%226798%22%20as%3D%22targetPoint%22%2F%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%2275%22%20y%3D%226927%22%2F%3E%3CmxPoint%20x%3D%2275%22%20y%3D%226768%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%225%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3B%22%20edge%3D%221%22%20target%3D%229%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%2296%22%20y%3D%226948%22%20as%3D%22sourcePoint%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%226%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dparallel%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%2255%22%20y%3D%226926.75%22%20width%3D%2243%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%227%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%229%22%20target%3D%2228%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%228%22%20value%3D%22If%20Claim%20Value%20%26amp%3Blt%3B%3D%201000%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3B%22%20edge%3D%221%22%20source%3D%229%22%20target%3D%2231%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%220.0131%22%20y%3D%22-34%22%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22135%22%20y%3D%227088%22%2F%3E%3C%2FArray%3E%3CmxPoint%20as%3D%22offset%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%229%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dexclusive%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22116%22%20y%3D%226928%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2210%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2211%22%20target%3D%2215%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22273.5%22%20y%3D%226768%22%20as%3D%22targetPoint%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2211%22%20value%3D%22Create%20Questionare%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22133.5%22%20y%3D%226748%22%20width%3D%2280%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2212%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3B%22%20edge%3D%221%22%20source%3D%2213%22%20target%3D%226%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2213%22%20value%3D%22Register%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22-90%22%20y%3D%226927.5%22%20width%3D%22120%22%20height%3D%2237.5%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2214%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2215%22%20target%3D%2218%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2215%22%20value%3D%22Send%20Quaestionaire%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22263.5%22%20y%3D%226748%22%20width%3D%2290%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2216%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2218%22%20target%3D%2220%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2217%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2218%22%20target%3D%2222%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22483.5%22%20y%3D%226833%22%20as%3D%22targetPoint%22%2F%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22423.36%22%20y%3D%226858%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2218%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dstandard%3Bsymbol%3Dmultiple%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22403.5%22%20y%3D%226748%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2219%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2220%22%20target%3D%2224%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2220%22%20value%3D%22Skip%20questionaire%22%20style%3D%22points%3D%5B%5B0.145%2C0.145%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.855%2C0.145%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.855%2C0.855%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.145%2C0.855%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.event%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DellipsePerimeter%3BoutlineConnect%3D0%3Baspect%3Dfixed%3Boutline%3Dstandard%3Bsymbol%3Dtimer%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22483.5%22%20y%3D%226748%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2221%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2222%22%20target%3D%2224%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22523.5%22%20y%3D%226833%22%20as%3D%22sourcePoint%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2222%22%20value%3D%22Receive%20Questionaire%20Response%22%20style%3D%22points%3D%5B%5B0.145%2C0.145%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.855%2C0.145%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.855%2C0.855%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.145%2C0.855%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.event%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DellipsePerimeter%3BoutlineConnect%3D0%3Baspect%3Dfixed%3Boutline%3Dcatching%3Bsymbol%3Dmessage%3BfillColor%3D%23FFCCCC%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22483.5%22%20y%3D%226838%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2223%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0.5%3BentryY%3D0%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3B%22%20edge%3D%221%22%20source%3D%2224%22%20target%3D%2276%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2224%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dexclusive%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22563.5%22%20y%3D%226748%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2225%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2228%22%20target%3D%2235%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2226%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2228%22%20target%3D%2237%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22193%22%20y%3D%227008%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2227%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfontSize%3D14%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2228%22%20target%3D%2233%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22194%22%20y%3D%226888%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2228%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dparallel%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22173%22%20y%3D%226928%22%20width%3D%2243%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2229%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2231%22%20target%3D%2239%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2230%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2231%22%20target%3D%2241%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22194%22%20y%3D%227148%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2231%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dparallel%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22174%22%20y%3D%227068%22%20width%3D%2243%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2232%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0.5%3BentryY%3D0%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2233%22%20target%3D%2245%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2233%22%20value%3D%22High%20Medical%20History%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23B9E0A5%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22234%22%20y%3D%226871%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2234%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2235%22%20target%3D%2245%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2235%22%20value%3D%22High%20insurance%20Check%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23B9E0A5%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22235%22%20y%3D%226928%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2236%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0.5%3BentryY%3D1%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2237%22%20target%3D%2245%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2237%22%20value%3D%22Contact%20Hospital%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23B9E0A5%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22235%22%20y%3D%226988%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2238%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2239%22%20target%3D%2243%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2239%22%20value%3D%22Low%20Medical%20HIstory%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23F19C99%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22236%22%20y%3D%227068%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2240%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0.5%3BentryY%3D1%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2241%22%20target%3D%2243%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2241%22%20value%3D%22Low%20Insurance%20Check%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23B9E0A5%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22236%22%20y%3D%227128%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2242%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0.5%3BentryY%3D1%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2243%22%20target%3D%2247%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2243%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dparallel%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22384%22%20y%3D%227068%22%20width%3D%2243%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2244%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2245%22%20target%3D%2247%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2245%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dparallel%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22384%22%20y%3D%226928%22%20width%3D%2243%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2246%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2247%22%20target%3D%2251%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2247%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dexclusive%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22457.5%22%20y%3D%226928%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2248%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2249%22%20target%3D%2253%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2249%22%20value%3D%22Decide%20Claim%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22581%22%20y%3D%226928%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2250%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2251%22%20target%3D%2249%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2251%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dexclusive%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22520%22%20y%3D%226928%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2252%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2253%22%20target%3D%2255%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2253%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dnone%3Bsymbol%3Dnone%3BgwType%3Dexclusive%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22724.3199999999999%22%20y%3D%226927.5%22%20width%3D%2240%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2254%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2255%22%20target%3D%2260%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2255%22%20value%3D%22Prepare%20Notification%20Content%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22786.5%22%20y%3D%226926.75%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2256%22%20value%3D%22If%20Claim%20Value%20%26amp%3Bgt%3B%201000%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BexitX%3D0.5%3BexitY%3D0%3BexitDx%3D0%3BexitDy%3D0%3BexitPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2260%22%20target%3D%2262%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22-0.1093%22%20y%3D%2226%22%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22946%22%20y%3D%226888%22%2F%3E%3CmxPoint%20x%3D%22957%22%20y%3D%226888%22%2F%3E%3C%2FArray%3E%3CmxPoint%20x%3D%22-24%22%20y%3D%2216%22%20as%3D%22offset%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2257%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BexitX%3D1%3BexitY%3D0.5%3BexitDx%3D0%3BexitDy%3D0%3BexitPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2260%22%20target%3D%2264%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%221015%22%20y%3D%226944%22%2F%3E%3CmxPoint%20x%3D%221015%22%20y%3D%226944%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2258%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BentryX%3D0%3BentryY%3D0.5%3BentryDx%3D0%3BentryDy%3D0%3BentryPerimeter%3D0%3BexitX%3D0.5%3BexitY%3D1%3BexitDx%3D0%3BexitDy%3D0%3BexitPerimeter%3D0%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2260%22%20target%3D%2266%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22955%22%20y%3D%226968%22%20as%3D%22sourcePoint%22%2F%3E%3CArray%20as%3D%22points%22%3E%3CmxPoint%20x%3D%22946%22%20y%3D%226999%22%2F%3E%3C%2FArray%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2259%22%20value%3D%22If%20Claimant%20Age%20%26amp%3Bgt%3B%2050%22%20style%3D%22edgeLabel%3Bhtml%3D1%3Balign%3Dcenter%3BverticalAlign%3Dmiddle%3Bresizable%3D0%3Bpoints%3D%5B%5D%3BfillColor%3Dnone%3B%22%20connectable%3D%220%22%20vertex%3D%221%22%20parent%3D%2258%22%3E%3CmxGeometry%20x%3D%22-0.0382%22%20relative%3D%221%22%20as%3D%22geometry%22%3E%3CmxPoint%20x%3D%22-20%22%20y%3D%229%22%20as%3D%22offset%22%2F%3E%3C%2FmxGeometry%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2260%22%20value%3D%22%22%20style%3D%22points%3D%5B%5B0.25%2C0.25%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B0.75%2C0.75%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.gateway2%3Bhtml%3D1%3BverticalLabelPosition%3Dbottom%3BlabelBackgroundColor%3D%23ffffff%3BverticalAlign%3Dtop%3Balign%3Dcenter%3Bperimeter%3DrhombusPerimeter%3BoutlineConnect%3D0%3Boutline%3Dend%3Bsymbol%3Dgeneral%3BfillColor%3Dnone%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22925%22%20y%3D%226927.38%22%20width%3D%2241.68%22%20height%3D%2238.75%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2261%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2262%22%20target%3D%2268%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2262%22%20value%3D%22Send%20Notification%20%26%2310%3Bby%20Post%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.75%2C0%5D%2C%5B0.75%2C1%2C0%5D%2C%5B0.5%2C1%2C0%5D%2C%5B0.25%2C1%2C0%5D%2C%5B0%2C0.75%2C0%5D%2C%5B0%2C0.5%2C0%5D%2C%5B0%2C0.25%2C0%5D%5D%3Bshape%3Dmxgraph.bpmn.task%3BwhiteSpace%3Dwrap%3BrectStyle%3Drounded%3Bsize%3D10%3BtaskMarker%3Dabstract%3BfillColor%3D%23B9E0A5%3B%22%20vertex%3D%221%22%20parent%3D%221%22%3E%3CmxGeometry%20x%3D%22995%22%20y%3D%226868.75%22%20width%3D%22120%22%20height%3D%2240%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2263%22%20style%3D%22edgeStyle%3DorthogonalEdgeStyle%3Brounded%3D0%3BorthogonalLoop%3D1%3BjettySize%3Dauto%3Bhtml%3D1%3BfillColor%3Dnone%3B%22%20edge%3D%221%22%20source%3D%2264%22%20target%3D%2270%22%20parent%3D%221%22%3E%3CmxGeometry%20relative%3D%221%22%20as%3D%22geometry%22%2F%3E%3C%2FmxCell%3E%3CmxCell%20id%3D%2264%22%20value%3D%22Send%20Notification%20%26%2310%3Bby%20email%22%20style%3D%22points%3D%5B%5B0.25%2C0%2C0%5D%2C%5B0.5%2C0%2C0%5D%2C%5B0.75%2C0%2C0%5D%2C%5B1%2C0.25%2C0%5D%2C%5B1%2C0.5%2C0%5D%2C%5B1%2C0.</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Send Notification by Phone &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Low Medical History &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Send Notification by Post &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Contact Hospital &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; High Medical History &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Receive Questionnaire Response &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Low Insurance Check &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; High Insurance Check &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Skip Questionnaire &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Send Notification by e-mail &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Archive &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Prepare Notification Content &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Create Questionnaire &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Decide claim &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Register &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Send Questionnaire &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Send Notification by Phone &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Low Medical History &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Send Notification by Post &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>High Insurance Check &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>High Medical History &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>Contact Hospital &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>Receive Questionnaire Response &lt;= 0.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Low Insurance Check &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>0.00 &lt; Skip Questionnaire &lt;= 1.00</t>
+  </si>
+  <si>
+    <t>Send Notification by e-mail &lt;= 0.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -611,26 +700,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1089,11 +1177,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1103,171 +1191,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:28" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>1</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>1</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>1</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>1</v>
       </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5">
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
         <v>1</v>
       </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="11">
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9">
         <v>1</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>1</v>
       </c>
-      <c r="AA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1275,82 +1363,82 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.14363410099999999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>-5.7305678999999998E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>-5.0352002E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>-3.6052683000000002E-2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>-3.5810135999999999E-2</v>
       </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>-3.0438158999999999E-2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>-3.6353703000000001E-2</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>-3.2199630000000002E-3</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0</v>
+      </c>
+      <c r="X3" s="6">
         <v>-3.491528E-2</v>
       </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7">
+      <c r="Y3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6">
         <v>-1.3743903E-2</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>0</v>
       </c>
       <c r="AB3">
@@ -1361,82 +1449,82 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.15312461599999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>-5.9439107999999997E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>-4.8791556E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>-3.1294247999999997E-2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>-3.8032825999999999E-2</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>-3.4157818999999999E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>-3.3688339999999997E-2</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
         <v>-3.2809787E-2</v>
       </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
         <v>-1.1862988E-2</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="6">
         <v>1.0495585E-2</v>
       </c>
       <c r="AB4">
@@ -1444,282 +1532,282 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.14129887999999999</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>-9.4206489999999997E-3</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
         <v>5.5297813000000001E-2</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>4.7788722999999998E-2</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>4.4691728999999999E-2</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>3.9491351000000001E-2</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>3.9027134999999998E-2</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>-2.7899949E-2</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <v>3.0668767999999999E-2</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="6">
         <v>-1.0504164999999999E-2</v>
       </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2">
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>0.14144127000000001</v>
       </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>3.5019873999999999E-2</v>
       </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
         <v>1.0464294000000001E-2</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
         <v>5.7656785000000002E-2</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>4.8966514000000003E-2</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>4.0624965999999998E-2</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>3.9785639999999997E-2</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>3.1143769000000002E-2</v>
       </c>
-      <c r="X6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
         <v>3.2308793000000002E-2</v>
       </c>
-      <c r="Z6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
         <v>9.4040270000000006E-3</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:28" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <f>AVERAGE(B3:B6)</f>
         <v>0.14487471675000002</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <f t="shared" ref="C7:AA7" si="0">AVERAGE(C3:C6)</f>
         <v>-2.9186196749999997E-2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>-2.4785889499999998E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>-1.683673275E-2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>-1.84607405E-2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>8.7549684999999999E-3</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>-1.61489945E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>-1.751051075E-2</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>2.6160735000000002E-3</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>-3.1601529999999997E-3</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <f t="shared" si="0"/>
         <v>2.8238649500000001E-2</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="7">
         <f t="shared" si="0"/>
         <v>2.4188809249999998E-2</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="7">
         <f t="shared" si="0"/>
         <v>2.1329173749999999E-2</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="7">
         <f t="shared" si="0"/>
         <v>1.9819247749999998E-2</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="7">
         <f t="shared" si="0"/>
         <v>1.7542726000000002E-2</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="7">
         <f t="shared" si="0"/>
         <v>-2.3906254000000002E-2</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="7">
         <f t="shared" si="0"/>
         <v>1.574439025E-2</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="7">
         <f t="shared" si="0"/>
         <v>-9.0277640000000006E-3</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="7">
         <f t="shared" si="0"/>
         <v>4.9749030000000001E-3</v>
       </c>
@@ -1728,82 +1816,82 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>-0.141334775</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>5.3221788999999999E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>4.6363586999999998E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3.4780670999999999E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>3.4330259000000002E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>-3.2060296000000002E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>3.1024185999999999E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>2.6408441000000001E-2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>-1.4194266000000001E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>4.5998640000000004E-3</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6">
         <v>0</v>
       </c>
       <c r="AB8">
@@ -1814,82 +1902,82 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
         <v>0.15536794400000001</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>-5.6550395000000003E-2</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>-5.0493678E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>-4.2838632000000001E-2</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>-3.5391523000000001E-2</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>-3.3210703000000001E-2</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>3.1276248999999999E-2</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>-3.0584957999999999E-2</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>9.2047780000000003E-3</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>2.4544469999999998E-3</v>
       </c>
       <c r="AB9">
@@ -1900,82 +1988,82 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>5.8928964E-2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>4.7932923000000002E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>4.0469848000000003E-2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>4.1182494E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>-4.1100861000000002E-2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>3.2273364999999998E-2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>3.8159788E-2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>-1.5163558000000001E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>-8.5543679999999997E-3</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
         <v>0.13807909400000001</v>
       </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
         <v>0</v>
       </c>
       <c r="AB10">
@@ -1986,82 +2074,82 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
         <v>0.15595257600000001</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>-5.4474735000000003E-2</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>-5.1281387999999997E-2</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>-3.2999347999999998E-2</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>-3.7451125000000002E-2</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>-3.4834939000000002E-2</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>3.4663516999999998E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>-3.6809304000000001E-2</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>1.1965527E-2</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>1.192184E-3</v>
       </c>
       <c r="AB11">
@@ -2072,82 +2160,82 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>-0.149275463</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>6.1685179E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>5.0934122999999998E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>3.1227779000000001E-2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>3.6424374000000002E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>-3.0566995999999999E-2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>2.8752473000000001E-2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>3.4203126E-2</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>-1.7443914000000001E-2</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
         <v>-4.2870599999999997E-3</v>
       </c>
       <c r="AB12">
@@ -2158,201 +2246,201 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
         <v>5.6354585999999998E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>4.4738078000000001E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>3.4370275999999998E-2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>3.6491704E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>-3.3475843999999998E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>3.2202955999999998E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>3.4458903999999999E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>-1.5657547000000001E-2</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
         <v>0.14789832999999999</v>
       </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="7">
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
         <v>5.0599999999999997E-5</v>
       </c>
       <c r="AB13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:28" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <f>AVERAGE(B8:B13)</f>
         <v>-4.8435039666666659E-2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <f t="shared" ref="C14:AA14" si="1">AVERAGE(C8:C13)</f>
         <v>3.8365086333333333E-2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>3.1661451833333333E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>2.3474762333333333E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>2.4738138499999996E-2</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f t="shared" si="1"/>
         <v>-2.2867332833333334E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>2.0708829999999998E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>2.2205043166666671E-2</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <f t="shared" si="1"/>
         <v>-1.0409880833333334E-2</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <f t="shared" si="1"/>
         <v>-6.5908399999999989E-4</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="7">
         <f t="shared" si="1"/>
         <v>9.9549657333333333E-2</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <f t="shared" si="1"/>
         <v>-1.8504188333333334E-2</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="7">
         <f t="shared" si="1"/>
         <v>-1.6962511E-2</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="7">
         <f t="shared" si="1"/>
         <v>-1.2639663333333334E-2</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="7">
         <f t="shared" si="1"/>
         <v>-1.2140441333333335E-2</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="7">
         <f t="shared" si="1"/>
         <v>-1.1340940333333334E-2</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="7">
         <f t="shared" si="1"/>
         <v>1.0989960999999999E-2</v>
       </c>
-      <c r="Y14" s="12" t="s">
+      <c r="Y14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="7">
         <f t="shared" si="1"/>
         <v>3.5283841666666669E-3</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="7">
         <f t="shared" si="1"/>
         <v>-9.8304833333333274E-5</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="12"/>
+      <c r="D47" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1">
+  <autoFilter ref="A1:AB1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB12">
       <sortCondition descending="1" ref="AB1"/>
     </sortState>
@@ -2390,4 +2478,965 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6BC56C-5300-4C10-9F35-4544CED16631}">
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="28" width="44.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.141334775</v>
+      </c>
+      <c r="C2">
+        <v>5.3221788999999999E-2</v>
+      </c>
+      <c r="D2">
+        <v>4.6363586999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.4780670999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.4330259000000002E-2</v>
+      </c>
+      <c r="G2">
+        <v>-3.2060296000000002E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.1024185999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.6408441000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>-1.4194266000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>4.5998640000000004E-3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.15536794400000001</v>
+      </c>
+      <c r="S3">
+        <v>-5.6550395000000003E-2</v>
+      </c>
+      <c r="T3">
+        <v>-5.0493678E-2</v>
+      </c>
+      <c r="U3">
+        <v>-4.2838632000000001E-2</v>
+      </c>
+      <c r="V3">
+        <v>-3.5391523000000001E-2</v>
+      </c>
+      <c r="W3">
+        <v>-3.3210703000000001E-2</v>
+      </c>
+      <c r="X3">
+        <v>3.1276248999999999E-2</v>
+      </c>
+      <c r="Y3">
+        <v>-3.0584957999999999E-2</v>
+      </c>
+      <c r="Z3">
+        <v>9.2047780000000003E-3</v>
+      </c>
+      <c r="AA3">
+        <v>2.4544469999999998E-3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.14363410099999999</v>
+      </c>
+      <c r="C4">
+        <v>-5.7305678999999998E-2</v>
+      </c>
+      <c r="D4">
+        <v>-5.0352002E-2</v>
+      </c>
+      <c r="E4">
+        <v>-3.6052683000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>-3.5810135999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-3.0438158999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>-3.6353703000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-3.2199630000000002E-3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>-3.491528E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>-1.3743903E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.15312461599999999</v>
+      </c>
+      <c r="C5">
+        <v>-5.9439107999999997E-2</v>
+      </c>
+      <c r="D5">
+        <v>-4.8791556E-2</v>
+      </c>
+      <c r="E5">
+        <v>-3.1294247999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>-3.8032825999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-3.4157818999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.3688339999999997E-2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>-3.2809787E-2</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>-1.1862988E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.0495585E-2</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5.8928964E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.7932923000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.0469848000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.1182494E-2</v>
+      </c>
+      <c r="G6">
+        <v>-4.1100861000000002E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.2273364999999998E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.8159788E-2</v>
+      </c>
+      <c r="J6">
+        <v>-1.5163558000000001E-2</v>
+      </c>
+      <c r="K6">
+        <v>-8.5543679999999997E-3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.13807909400000001</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.15595257600000001</v>
+      </c>
+      <c r="S7">
+        <v>-5.4474735000000003E-2</v>
+      </c>
+      <c r="T7">
+        <v>-5.1281387999999997E-2</v>
+      </c>
+      <c r="U7">
+        <v>-3.2999347999999998E-2</v>
+      </c>
+      <c r="V7">
+        <v>-3.7451125000000002E-2</v>
+      </c>
+      <c r="W7">
+        <v>-3.4834939000000002E-2</v>
+      </c>
+      <c r="X7">
+        <v>3.4663516999999998E-2</v>
+      </c>
+      <c r="Y7">
+        <v>-3.6809304000000001E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.1965527E-2</v>
+      </c>
+      <c r="AA7">
+        <v>1.192184E-3</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.149275463</v>
+      </c>
+      <c r="C8">
+        <v>6.1685179E-2</v>
+      </c>
+      <c r="D8">
+        <v>5.0934122999999998E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.1227779000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.6424374000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>-3.0566995999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.8752473000000001E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.4203126E-2</v>
+      </c>
+      <c r="J8">
+        <v>-1.7443914000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>-4.2870599999999997E-3</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5.6354585999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.4738078000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.4370275999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.6491704E-2</v>
+      </c>
+      <c r="G9">
+        <v>-3.3475843999999998E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.2202955999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.4458903999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>-1.5657547000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.14789832999999999</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>5.0599999999999997E-5</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.14129887999999999</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-9.4206489999999997E-3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>5.5297813000000001E-2</v>
+      </c>
+      <c r="T10">
+        <v>4.7788722999999998E-2</v>
+      </c>
+      <c r="U10">
+        <v>4.4691728999999999E-2</v>
+      </c>
+      <c r="V10">
+        <v>3.9491351000000001E-2</v>
+      </c>
+      <c r="W10">
+        <v>3.9027134999999998E-2</v>
+      </c>
+      <c r="X10">
+        <v>-2.7899949E-2</v>
+      </c>
+      <c r="Y10">
+        <v>3.0668767999999999E-2</v>
+      </c>
+      <c r="Z10">
+        <v>-1.0504164999999999E-2</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.14144127000000001</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3.5019873999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.0464294000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>5.7656785000000002E-2</v>
+      </c>
+      <c r="T11">
+        <v>4.8966514000000003E-2</v>
+      </c>
+      <c r="U11">
+        <v>4.0624965999999998E-2</v>
+      </c>
+      <c r="V11">
+        <v>3.9785639999999997E-2</v>
+      </c>
+      <c r="W11">
+        <v>3.1143769000000002E-2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>3.2308793000000002E-2</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>9.4040270000000006E-3</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>